--- a/bases/UPDATE/SCN/deflactor.xlsx
+++ b/bases/UPDATE/SCN/deflactor.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\Ricardo Cantú\SimuladorCIEP\5.3\SimuladorCIEP\bases\UPDATE\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6D0206-2B07-4148-890F-B8C283767BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="deflactor" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="deflactor" localSheetId="0">deflactor!$A$1:$B$129</definedName>
+    <definedName name="deflactor" localSheetId="0">deflactor!$A$1:$B$132</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\deflactor.IQY" name="deflactor" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1993&amp;aamax=9999&amp;cveser=,495466,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\deflactor.IQY" name="deflactor" type="4" refreshedVersion="8" background="1" saveData="1">
+    <webPr consecutive="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1993&amp;aamax=9999&amp;cveser=,495466,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Cuentas nacionales &gt; Producto interno bruto trimestral, base 2013 &gt; Índice de precios implícitos, 2013=100.0</t>
   </si>
@@ -401,8 +402,52 @@
     <t>2019/04</t>
   </si>
   <si>
+    <t>2020/01</t>
+  </si>
+  <si>
+    <t>2020/02</t>
+  </si>
+  <si>
+    <t>2020/03</t>
+  </si>
+  <si>
+    <t>2020/04</t>
+  </si>
+  <si>
     <r>
-      <t>2020/01</t>
+      <t>2021/01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r/</t>
+    </r>
+  </si>
+  <si>
+    <t>2021/02</t>
+  </si>
+  <si>
+    <t>2021/03</t>
+  </si>
+  <si>
+    <t>2021/04</t>
+  </si>
+  <si>
+    <t>2022/01</t>
+  </si>
+  <si>
+    <t>2022/02</t>
+  </si>
+  <si>
+    <r>
+      <t>2022/03</t>
     </r>
     <r>
       <rPr>
@@ -418,33 +463,6 @@
     </r>
   </si>
   <si>
-    <t>2020/02</t>
-  </si>
-  <si>
-    <t>2020/03</t>
-  </si>
-  <si>
-    <t>2020/04</t>
-  </si>
-  <si>
-    <t>2021/01</t>
-  </si>
-  <si>
-    <t>2021/02</t>
-  </si>
-  <si>
-    <t>2021/03</t>
-  </si>
-  <si>
-    <t>2021/04</t>
-  </si>
-  <si>
-    <t>2022/01</t>
-  </si>
-  <si>
-    <t>2022/02</t>
-  </si>
-  <si>
     <t>Notas:</t>
   </si>
   <si>
@@ -459,7 +477,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Este indicador se actualiza una vez que se dispone de la información estadística más reciente de las encuestas, los registros administrativos y los datos primarios en 2022. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los valores en millones de pesos, variaciones anuales y estructuras porcentuales que fueron publicados oportunamente. La actualización se hace con base en los Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del Instituto Nacional de Estadística y Geografía (INEGI) que se complementan con las Normas Especiales para la Divulgación de Datos del FMI. Los códigos se derivan del SCN 2008, modificados para uso del SCN de México.</t>
+      <t xml:space="preserve"> Este producto se actualiza una vez que se dispone de la información estadística más reciente de las Cuentas de Bienes y Servicios 2021 versión preliminar y de las encuestas, los registros administrativos, y los datos primarios de los años 2021 y 2022. Como resultado de incorporar esta información, se identifican diferencias en los niveles de los valores en millones de pesos, variaciones anuales y estructuras porcentuales que se publicaron oportunamente. La actualización se hace con base en los «Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del Instituto Nacional de Estadística y Geografía» que se complementan con las Normas Especiales para la Divulgación de Datos del Fondo Monetario Internacional (FMI).</t>
     </r>
   </si>
   <si>
@@ -477,7 +495,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020/01</t>
+      <t xml:space="preserve"> A partir de 2022/03</t>
+    </r>
+  </si>
+  <si>
+    <t>Cifras revisadas:</t>
+  </si>
+  <si>
+    <r>
+      <t>r/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A partir de 2021/01</t>
     </r>
   </si>
   <si>
@@ -496,7 +532,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 30/08/2022 0:14:15</t>
+    <t>Fecha de consulta: 30/11/2022 15:11:36</t>
   </si>
 </sst>
 </file>
@@ -565,7 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -829,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -944,6 +980,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -967,29 +1074,29 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -997,56 +1104,74 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1066,7 +1191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1082,7 +1207,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1094,7 +1219,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1141,6 +1266,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1176,6 +1318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1328,1034 +1487,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>15.007999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>15.276999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>15.435</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>15.654999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>16.143999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>16.521000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>16.785</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>17.314</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>19.710999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>22.934000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>24.05</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>25.818999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>27.38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>28.631</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>29.645</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>31.254999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>33.082000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>34.055999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>35.07</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>36.616</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>39.279000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>40.676000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>42.259</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>44.322000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>45.902000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>47.430999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>48.523000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>50.389000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>51.256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>52.301000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>53.052</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>54.488</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>54.731000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>55.213000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>55.101999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>56.295000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>57.832999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>58.578000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>58.838999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>60.496000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>59.779000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>59.988999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>60.707999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>62.982999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>64.680999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <v>65.811999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>66.611000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>67.849000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <v>68.370999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>69.468999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>69.698999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <v>71.593999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="6">
         <v>73.179000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="6">
         <v>74.144999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="6">
         <v>74.063999999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>75.894000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>76.611000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>77.917000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="6">
         <v>79.495000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>80.902000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="6">
         <v>82.677999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="6">
         <v>83.346000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>82.165000000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>84.751000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>85.224000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>85.706999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>86.38</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>88.947000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>88.558000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>89.441999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="6">
         <v>90.673000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="6">
         <v>93.335999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="6">
         <v>93.271000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>94.305000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="6">
         <v>97.494</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="6">
         <v>98.676000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="6">
         <v>98.025999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>98.858999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>98.421999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>100.30800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>99.001000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>100.108</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="6">
         <v>100.58</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="6">
         <v>103.76300000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="6">
         <v>104.087</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>104.871</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>104.995</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="1">
-        <v>106.401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+      <c r="B92" s="6">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="6">
         <v>107.18600000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="6">
         <v>107.83799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="1">
-        <v>108.119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+      <c r="B95" s="6">
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="1">
-        <v>110.52500000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+      <c r="B96" s="6">
+        <v>110.526</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="1">
-        <v>112.395</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+      <c r="B97" s="6">
+        <v>112.396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="6">
         <v>114.395</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="1">
-        <v>116.178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+      <c r="B99" s="6">
+        <v>116.175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="1">
-        <v>120.081</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+      <c r="B100" s="6">
+        <v>120.074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="1">
-        <v>120.59099999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+      <c r="B101" s="6">
+        <v>120.58499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="6">
         <v>121.366</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="1">
-        <v>122.048</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="B103" s="6">
+        <v>122.06100000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="1">
-        <v>125.83199999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+      <c r="B104" s="6">
+        <v>125.86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="1">
-        <v>126.675</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+      <c r="B105" s="6">
+        <v>126.703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="1">
-        <v>127.089</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+      <c r="B106" s="6">
+        <v>127.087</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="1">
-        <v>128.42500000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+      <c r="B107" s="6">
+        <v>128.37299999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="1">
-        <v>131.29400000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="B108" s="6">
+        <v>131.18799999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="1">
-        <v>132.10400000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+      <c r="B109" s="6">
+        <v>132.01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="1">
-        <v>132.72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+      <c r="B110" s="6">
+        <v>132.732</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="1">
-        <v>132.89599999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+      <c r="B111" s="6">
+        <v>133.08000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="1">
-        <v>136.625</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+      <c r="B112" s="6">
+        <v>136.96899999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="1">
-        <v>134.435</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+      <c r="B113" s="6">
+        <v>134.63200000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="1">
-        <v>139.59200000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+      <c r="B114" s="6">
+        <v>139.59700000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="1">
-        <v>140.06299999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+      <c r="B115" s="6">
+        <v>139.47900000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="1">
-        <v>144.583</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+      <c r="B116" s="6">
+        <v>143.17400000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="1">
-        <v>145.86600000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+      <c r="B117" s="6">
+        <v>143.49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="1">
-        <v>148.655</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+      <c r="B118" s="6">
+        <v>145.648</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="1">
-        <v>150.96899999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+      <c r="B119" s="6">
+        <v>147.15799999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="1">
-        <v>156.143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+      <c r="B120" s="6">
+        <v>152.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="1">
-        <v>159.04900000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
+      <c r="B121" s="6">
+        <v>155.07499999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="2" t="s">
+      <c r="B122" s="8">
+        <v>155.80199999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="4" t="s">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" s="1"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="10"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A126:B126"/>
+  <mergeCells count="10">
+    <mergeCell ref="A127:B127"/>
     <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A131:B131"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A122:B122"/>
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/UPDATE/SCN/deflactor.xlsx
+++ b/bases/UPDATE/SCN/deflactor.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6D0206-2B07-4148-890F-B8C283767BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="deflactor" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\deflactor.IQY" name="deflactor" type="4" refreshedVersion="8" background="1" saveData="1">
-    <webPr consecutive="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1993&amp;aamax=9999&amp;cveser=,495466,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\deflactor.IQY" name="deflactor" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1993&amp;aamax=9999&amp;cveser=,495466,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -532,7 +531,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 30/11/2022 15:11:36</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:31</t>
   </si>
 </sst>
 </file>
@@ -601,7 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -865,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -980,77 +979,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1074,29 +1002,29 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1104,74 +1032,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1191,7 +1101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1207,7 +1117,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1219,7 +1129,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1266,23 +1176,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1318,23 +1211,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1491,1036 +1367,1036 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>15.007999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>15.276999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>15.435</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>15.654999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>16.143999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>16.521000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>16.785</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>17.314</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>19.710999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>22.934000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>24.05</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>25.818999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>27.38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>28.631</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>29.645</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>31.254999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>33.082000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>34.055999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="1">
         <v>35.07</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>36.616</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="1">
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>39.279000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="1">
         <v>40.676000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="1">
         <v>42.259</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="1">
         <v>44.322000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="1">
         <v>45.902000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="1">
         <v>47.430999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="1">
         <v>48.523000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="1">
         <v>50.389000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="1">
         <v>51.256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="1">
         <v>52.301000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="1">
         <v>53.052</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="1">
         <v>54.488</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="1">
         <v>54.731000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="1">
         <v>55.213000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1">
         <v>55.101999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="1">
         <v>56.295000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="1">
         <v>57.832999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="1">
         <v>58.578000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="1">
         <v>58.838999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="1">
         <v>60.496000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="1">
         <v>59.779000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="1">
         <v>59.988999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="1">
         <v>60.707999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="1">
         <v>62.982999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="1">
         <v>64.680999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="1">
         <v>65.811999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="1">
         <v>66.611000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="1">
         <v>67.849000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="1">
         <v>68.370999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="1">
         <v>69.468999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="1">
         <v>69.698999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="1">
         <v>71.593999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="1">
         <v>73.179000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="1">
         <v>74.144999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="1">
         <v>74.063999999999993</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="1">
         <v>75.894000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="1">
         <v>76.611000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="1">
         <v>77.917000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="1">
         <v>79.495000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="1">
         <v>80.902000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="1">
         <v>82.677999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="1">
         <v>83.346000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="1">
         <v>82.165000000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="1">
         <v>84.751000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="1">
         <v>85.224000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="1">
         <v>85.706999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="1">
         <v>86.38</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="1">
         <v>88.947000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="1">
         <v>88.558000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="1">
         <v>89.441999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="1">
         <v>90.673000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="1">
         <v>93.335999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="1">
         <v>93.271000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="1">
         <v>94.305000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="1">
         <v>97.494</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="1">
         <v>98.676000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="1">
         <v>98.025999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="1">
         <v>98.858999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="1">
         <v>98.421999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="1">
         <v>100.30800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="1">
         <v>99.001000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="1">
         <v>100.108</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="1">
         <v>100.58</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="1">
         <v>103.76300000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="1">
         <v>104.087</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="1">
         <v>104.871</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="1">
         <v>104.995</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="1">
         <v>106.4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="1">
         <v>107.18600000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="1">
         <v>107.83799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="1">
         <v>108.12</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="1">
         <v>110.526</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="1">
         <v>112.396</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="1">
         <v>114.395</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="1">
         <v>116.175</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="1">
         <v>120.074</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="1">
         <v>120.58499999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="1">
         <v>121.366</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="1">
         <v>122.06100000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="1">
         <v>125.86</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="1">
         <v>126.703</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="1">
         <v>127.087</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="1">
         <v>128.37299999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="1">
         <v>131.18799999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="1">
         <v>132.01</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="1">
         <v>132.732</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="1">
         <v>133.08000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="1">
         <v>136.96899999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="1">
         <v>134.63200000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="1">
         <v>139.59700000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="1">
         <v>139.47900000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="1">
         <v>143.17400000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="1">
         <v>143.49</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="1">
         <v>145.648</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="1">
         <v>147.15799999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="1">
         <v>152.53</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="1">
         <v>155.07499999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="1">
         <v>155.80199999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+    <row r="123" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="1:2" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+    <row r="131" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="10"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
     </row>
   </sheetData>
